--- a/Code/Results/Cases/Case_6_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_59/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9850236540715879</v>
+        <v>0.988180914174102</v>
       </c>
       <c r="D2">
-        <v>1.00551502611242</v>
+        <v>1.008381221794343</v>
       </c>
       <c r="E2">
-        <v>0.9931576344588334</v>
+        <v>0.9962135530093124</v>
       </c>
       <c r="F2">
-        <v>0.9935806653872312</v>
+        <v>0.9965772062134711</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036522180666445</v>
+        <v>1.038081410993866</v>
       </c>
       <c r="J2">
-        <v>1.007661722153959</v>
+        <v>1.010720971787842</v>
       </c>
       <c r="K2">
-        <v>1.016898058873735</v>
+        <v>1.019725014840247</v>
       </c>
       <c r="L2">
-        <v>1.004713124622573</v>
+        <v>1.007725892331186</v>
       </c>
       <c r="M2">
-        <v>1.005130162166178</v>
+        <v>1.008084432858503</v>
       </c>
       <c r="N2">
-        <v>1.009092717379833</v>
+        <v>1.012156311499097</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9919081478884418</v>
+        <v>0.9928732535792286</v>
       </c>
       <c r="D3">
-        <v>1.010650959477291</v>
+        <v>1.011766394229113</v>
       </c>
       <c r="E3">
-        <v>0.998836136746485</v>
+        <v>0.9999609337265751</v>
       </c>
       <c r="F3">
-        <v>1.000800545174319</v>
+        <v>1.001962548369537</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038442638981438</v>
+        <v>1.039199341853818</v>
       </c>
       <c r="J3">
-        <v>1.012621862280458</v>
+        <v>1.013560104519731</v>
       </c>
       <c r="K3">
-        <v>1.021149349288167</v>
+        <v>1.022250903366828</v>
       </c>
       <c r="L3">
-        <v>1.009483931112757</v>
+        <v>1.010594314437334</v>
       </c>
       <c r="M3">
-        <v>1.011423193113272</v>
+        <v>1.012570379461175</v>
       </c>
       <c r="N3">
-        <v>1.014059901474248</v>
+        <v>1.014999476125118</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9962346659071202</v>
+        <v>0.9958448554767411</v>
       </c>
       <c r="D4">
-        <v>1.013880778809018</v>
+        <v>1.013912035745601</v>
       </c>
       <c r="E4">
-        <v>1.002411338657913</v>
+        <v>1.002340420226906</v>
       </c>
       <c r="F4">
-        <v>1.0053412026118</v>
+        <v>1.005373693439051</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039636912879406</v>
+        <v>1.039896203764865</v>
       </c>
       <c r="J4">
-        <v>1.015735182211142</v>
+        <v>1.015355450823163</v>
       </c>
       <c r="K4">
-        <v>1.023814512668265</v>
+        <v>1.0238454050452</v>
       </c>
       <c r="L4">
-        <v>1.012480747808538</v>
+        <v>1.012410680273625</v>
       </c>
       <c r="M4">
-        <v>1.015375588644895</v>
+        <v>1.015407692500776</v>
       </c>
       <c r="N4">
-        <v>1.017177642676336</v>
+        <v>1.01679737202623</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9980244793120421</v>
+        <v>0.997079223263305</v>
       </c>
       <c r="D5">
-        <v>1.01521731479016</v>
+        <v>1.014803690231338</v>
       </c>
       <c r="E5">
-        <v>1.003891833486507</v>
+        <v>1.003330296505741</v>
       </c>
       <c r="F5">
-        <v>1.007220410146668</v>
+        <v>1.006790840013379</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040127874753245</v>
+        <v>1.040182964893857</v>
       </c>
       <c r="J5">
-        <v>1.017022128528237</v>
+        <v>1.016100547867781</v>
       </c>
       <c r="K5">
-        <v>1.024915400698439</v>
+        <v>1.024506467001261</v>
       </c>
       <c r="L5">
-        <v>1.013720086060655</v>
+        <v>1.01316509752121</v>
       </c>
       <c r="M5">
-        <v>1.017010031300946</v>
+        <v>1.016585429014588</v>
       </c>
       <c r="N5">
-        <v>1.018466416604815</v>
+        <v>1.017543527194115</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.99832333830033</v>
+        <v>0.9972856220999424</v>
       </c>
       <c r="D6">
-        <v>1.01544050752108</v>
+        <v>1.014952804490375</v>
       </c>
       <c r="E6">
-        <v>1.004139128239412</v>
+        <v>1.003495898676237</v>
       </c>
       <c r="F6">
-        <v>1.007534243474198</v>
+        <v>1.007027813968411</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040209670954062</v>
+        <v>1.040230753948622</v>
       </c>
       <c r="J6">
-        <v>1.01723696018714</v>
+        <v>1.016225095397843</v>
       </c>
       <c r="K6">
-        <v>1.025099125249672</v>
+        <v>1.024616926952436</v>
       </c>
       <c r="L6">
-        <v>1.013927002563206</v>
+        <v>1.013291237997951</v>
       </c>
       <c r="M6">
-        <v>1.017282910827591</v>
+        <v>1.016782308878712</v>
       </c>
       <c r="N6">
-        <v>1.018681553349316</v>
+        <v>1.017668251595956</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9962586935763967</v>
+        <v>0.9958614069296992</v>
       </c>
       <c r="D7">
-        <v>1.013898719895527</v>
+        <v>1.013923990385441</v>
       </c>
       <c r="E7">
-        <v>1.002431208045911</v>
+        <v>1.002353687600491</v>
       </c>
       <c r="F7">
-        <v>1.005366427171475</v>
+        <v>1.005392694917357</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039643516194489</v>
+        <v>1.039900059651037</v>
       </c>
       <c r="J7">
-        <v>1.015752463032404</v>
+        <v>1.015365444402932</v>
       </c>
       <c r="K7">
-        <v>1.023829298364311</v>
+        <v>1.023854274225868</v>
       </c>
       <c r="L7">
-        <v>1.012497387192038</v>
+        <v>1.012420796504627</v>
       </c>
       <c r="M7">
-        <v>1.015397532921669</v>
+        <v>1.015423487936229</v>
       </c>
       <c r="N7">
-        <v>1.017194948038346</v>
+        <v>1.016807379798028</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9873778772427941</v>
+        <v>0.9897804620151427</v>
       </c>
       <c r="D8">
-        <v>1.007270781720809</v>
+        <v>1.00953474761957</v>
       </c>
       <c r="E8">
-        <v>0.9950980107580664</v>
+        <v>0.9974896227080964</v>
       </c>
       <c r="F8">
-        <v>0.996048866726292</v>
+        <v>0.9984128700067443</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037181525880784</v>
+        <v>1.038464802603284</v>
       </c>
       <c r="J8">
-        <v>1.009358665520955</v>
+        <v>1.011689322494164</v>
       </c>
       <c r="K8">
-        <v>1.018353158179753</v>
+        <v>1.02058709523505</v>
       </c>
       <c r="L8">
-        <v>1.006344794600967</v>
+        <v>1.008703706371</v>
       </c>
       <c r="M8">
-        <v>1.007282625964587</v>
+        <v>1.009614382983412</v>
       </c>
       <c r="N8">
-        <v>1.010792070601052</v>
+        <v>1.013126037374493</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9706655078375577</v>
+        <v>0.9785418834258877</v>
       </c>
       <c r="D9">
-        <v>0.994821333175424</v>
+        <v>1.001440588558673</v>
       </c>
       <c r="E9">
-        <v>0.9813560517135588</v>
+        <v>0.988552832760799</v>
       </c>
       <c r="F9">
-        <v>0.9785419197307466</v>
+        <v>0.9855165587291517</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032449084069303</v>
+        <v>1.035725538099262</v>
       </c>
       <c r="J9">
-        <v>0.9972984347773253</v>
+        <v>1.004875822294059</v>
       </c>
       <c r="K9">
-        <v>1.007998993162347</v>
+        <v>1.014510336377913</v>
       </c>
       <c r="L9">
-        <v>0.9947590343908557</v>
+        <v>1.001834403328649</v>
       </c>
       <c r="M9">
-        <v>0.9919930054936874</v>
+        <v>0.9988490733523685</v>
       </c>
       <c r="N9">
-        <v>0.9987147129464383</v>
+        <v>1.006302861222585</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9586815637318343</v>
+        <v>0.970655763851702</v>
       </c>
       <c r="D10">
-        <v>0.9859190610978921</v>
+        <v>0.995777631109739</v>
       </c>
       <c r="E10">
-        <v>0.9715490336825763</v>
+        <v>0.9823213169727255</v>
       </c>
       <c r="F10">
-        <v>0.9660068106700885</v>
+        <v>0.9764668045580355</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028992403736678</v>
+        <v>1.03374741100589</v>
       </c>
       <c r="J10">
-        <v>0.9886361533459229</v>
+        <v>1.000084023417541</v>
       </c>
       <c r="K10">
-        <v>1.000547292072926</v>
+        <v>1.010223542530058</v>
       </c>
       <c r="L10">
-        <v>0.986451708659974</v>
+        <v>0.9970172741609009</v>
       </c>
       <c r="M10">
-        <v>0.9810181993581774</v>
+        <v>0.9912743677232185</v>
       </c>
       <c r="N10">
-        <v>0.9900401300818259</v>
+        <v>1.001504257442035</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9532593156554982</v>
+        <v>0.9671373201699435</v>
       </c>
       <c r="D11">
-        <v>0.981899321593614</v>
+        <v>0.9932561259906301</v>
       </c>
       <c r="E11">
-        <v>0.9671247988418167</v>
+        <v>0.9795513218062544</v>
       </c>
       <c r="F11">
-        <v>0.9603395836736639</v>
+        <v>0.9724284003378975</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027414503140579</v>
+        <v>1.032852208129645</v>
       </c>
       <c r="J11">
-        <v>0.9847146717858491</v>
+        <v>0.9979441419504901</v>
       </c>
       <c r="K11">
-        <v>0.9971708582079738</v>
+        <v>1.008306352463683</v>
       </c>
       <c r="L11">
-        <v>0.9826945155710146</v>
+        <v>0.994869455581405</v>
       </c>
       <c r="M11">
-        <v>0.9760503065569134</v>
+        <v>0.987889705960034</v>
       </c>
       <c r="N11">
-        <v>0.9861130795681368</v>
+        <v>0.9993613370978527</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9512069568907536</v>
+        <v>0.9658138782033893</v>
       </c>
       <c r="D12">
-        <v>0.980379267163119</v>
+        <v>0.9923085352190634</v>
       </c>
       <c r="E12">
-        <v>0.9654523361050257</v>
+        <v>0.9785110219215063</v>
       </c>
       <c r="F12">
-        <v>0.9581951564994801</v>
+        <v>0.9709091923263299</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026815274470285</v>
+        <v>1.032513638670259</v>
       </c>
       <c r="J12">
-        <v>0.9832301581054801</v>
+        <v>0.9971389896266502</v>
       </c>
       <c r="K12">
-        <v>0.9958922771570444</v>
+        <v>1.007584590127257</v>
       </c>
       <c r="L12">
-        <v>0.9812727580047154</v>
+        <v>0.9940618309528765</v>
       </c>
       <c r="M12">
-        <v>0.9741696246816738</v>
+        <v>0.9866157857164369</v>
       </c>
       <c r="N12">
-        <v>0.9846264577080651</v>
+        <v>0.9985550413653604</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9516489848546147</v>
+        <v>0.9660985254242799</v>
       </c>
       <c r="D13">
-        <v>0.9807065808442105</v>
+        <v>0.9925123035674223</v>
       </c>
       <c r="E13">
-        <v>0.9658124439924873</v>
+        <v>0.9787346962585708</v>
       </c>
       <c r="F13">
-        <v>0.9586569841353467</v>
+        <v>0.9712359546301844</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026944421368317</v>
+        <v>1.032586540909953</v>
       </c>
       <c r="J13">
-        <v>0.9835498933620422</v>
+        <v>0.9973121729819002</v>
       </c>
       <c r="K13">
-        <v>0.9961676757776354</v>
+        <v>1.00773985445646</v>
       </c>
       <c r="L13">
-        <v>0.9815789510095652</v>
+        <v>0.9942355227394917</v>
       </c>
       <c r="M13">
-        <v>0.9745746905436863</v>
+        <v>0.986889818305394</v>
       </c>
       <c r="N13">
-        <v>0.9849466470253661</v>
+        <v>0.9987284706608396</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9530904686495194</v>
+        <v>0.9670282671506463</v>
       </c>
       <c r="D14">
-        <v>0.9817742364974729</v>
+        <v>0.9931780254762768</v>
       </c>
       <c r="E14">
-        <v>0.9669871612526187</v>
+        <v>0.9794655666506331</v>
       </c>
       <c r="F14">
-        <v>0.9601631489108882</v>
+        <v>0.9723032201698556</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027365244315947</v>
+        <v>1.032824346788075</v>
       </c>
       <c r="J14">
-        <v>0.9845925446910341</v>
+        <v>0.9978778012960366</v>
       </c>
       <c r="K14">
-        <v>0.9970656804759811</v>
+        <v>1.008246890717915</v>
       </c>
       <c r="L14">
-        <v>0.9825775396993947</v>
+        <v>0.994802900731718</v>
       </c>
       <c r="M14">
-        <v>0.9758955892196023</v>
+        <v>0.9877847499831727</v>
       </c>
       <c r="N14">
-        <v>0.9859907790388387</v>
+        <v>0.9992949022320609</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9539734350289907</v>
+        <v>0.9675988907751739</v>
       </c>
       <c r="D15">
-        <v>0.9824284149739353</v>
+        <v>0.9935867246507359</v>
       </c>
       <c r="E15">
-        <v>0.9677070096474197</v>
+        <v>0.9799143498074453</v>
       </c>
       <c r="F15">
-        <v>0.961085821318585</v>
+        <v>0.9729582216624327</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027622757873095</v>
+        <v>1.03297005740196</v>
       </c>
       <c r="J15">
-        <v>0.9852311869402971</v>
+        <v>0.9982249212043363</v>
       </c>
       <c r="K15">
-        <v>0.9976156730367692</v>
+        <v>1.008558001379325</v>
       </c>
       <c r="L15">
-        <v>0.9831892675578757</v>
+        <v>0.9951511623820852</v>
       </c>
       <c r="M15">
-        <v>0.9767046541329999</v>
+        <v>0.9883339029603319</v>
       </c>
       <c r="N15">
-        <v>0.9866303282333491</v>
+        <v>0.9996425150904453</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9590362390848376</v>
+        <v>0.9708870066432891</v>
       </c>
       <c r="D16">
-        <v>0.9861821836994825</v>
+        <v>0.9959434655980344</v>
       </c>
       <c r="E16">
-        <v>0.9718387125996704</v>
+        <v>0.9825035891696359</v>
       </c>
       <c r="F16">
-        <v>0.9663776012059171</v>
+        <v>0.9767321986878317</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029095337060067</v>
+        <v>1.033805987827273</v>
       </c>
       <c r="J16">
-        <v>0.988892626958538</v>
+        <v>1.00022462570649</v>
       </c>
       <c r="K16">
-        <v>1.000768060480214</v>
+        <v>1.010349455952838</v>
       </c>
       <c r="L16">
-        <v>0.986697513724436</v>
+        <v>0.9971584687766715</v>
       </c>
       <c r="M16">
-        <v>0.9813431114901797</v>
+        <v>0.9914967085786512</v>
       </c>
       <c r="N16">
-        <v>0.9902969679163887</v>
+        <v>1.001645059402362</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9621474072090073</v>
+        <v>0.972921139623568</v>
       </c>
       <c r="D17">
-        <v>0.9884912089910298</v>
+        <v>0.9974028196597365</v>
       </c>
       <c r="E17">
-        <v>0.9743812316926103</v>
+        <v>0.9841081242733035</v>
       </c>
       <c r="F17">
-        <v>0.9696306261339935</v>
+        <v>0.9790666467177146</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029996699261376</v>
+        <v>1.034319828654821</v>
       </c>
       <c r="J17">
-        <v>0.9911421517919644</v>
+        <v>1.001461216959914</v>
       </c>
       <c r="K17">
-        <v>1.002704083674467</v>
+        <v>1.011456540616231</v>
       </c>
       <c r="L17">
-        <v>0.988853873226464</v>
+        <v>0.9984006538658674</v>
       </c>
       <c r="M17">
-        <v>0.9841929518043193</v>
+        <v>0.9934519463519612</v>
       </c>
       <c r="N17">
-        <v>0.9925496873331028</v>
+        <v>1.002883406757204</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9639398478392792</v>
+        <v>0.9740976776112342</v>
       </c>
       <c r="D18">
-        <v>0.9898222634682871</v>
+        <v>0.9982473796633099</v>
       </c>
       <c r="E18">
-        <v>0.9758472687865067</v>
+        <v>0.9850371484673198</v>
       </c>
       <c r="F18">
-        <v>0.9715052087021396</v>
+        <v>0.9804168153375167</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030514689294125</v>
+        <v>1.03461583048917</v>
       </c>
       <c r="J18">
-        <v>0.9924379626221096</v>
+        <v>1.002176266639442</v>
       </c>
       <c r="K18">
-        <v>1.003819021384731</v>
+        <v>1.012096434349413</v>
       </c>
       <c r="L18">
-        <v>0.9900963536444912</v>
+        <v>0.9991192573019413</v>
       </c>
       <c r="M18">
-        <v>0.9858346204826985</v>
+        <v>0.9945823645146481</v>
       </c>
       <c r="N18">
-        <v>0.9938473383632586</v>
+        <v>1.003599471889294</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9645473422828279</v>
+        <v>0.9744971889112471</v>
       </c>
       <c r="D19">
-        <v>0.9902735065258526</v>
+        <v>0.9985342401743724</v>
       </c>
       <c r="E19">
-        <v>0.9763443391363613</v>
+        <v>0.9853527740429894</v>
       </c>
       <c r="F19">
-        <v>0.9721406129823889</v>
+        <v>0.9808752753933671</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03069002098148</v>
+        <v>1.03471613677621</v>
       </c>
       <c r="J19">
-        <v>0.9928771002038908</v>
+        <v>1.002419038570958</v>
       </c>
       <c r="K19">
-        <v>1.004196813216836</v>
+        <v>1.012313643030482</v>
       </c>
       <c r="L19">
-        <v>0.9905174744946176</v>
+        <v>0.9993632897348355</v>
       </c>
       <c r="M19">
-        <v>0.9863909781154392</v>
+        <v>0.9949661332066414</v>
       </c>
       <c r="N19">
-        <v>0.9942870995707753</v>
+        <v>1.0038425885848</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9618159321637478</v>
+        <v>0.9727039309397335</v>
       </c>
       <c r="D20">
-        <v>0.9882451173855312</v>
+        <v>0.9972469372369922</v>
       </c>
       <c r="E20">
-        <v>0.974110215293317</v>
+        <v>0.9839366882327036</v>
       </c>
       <c r="F20">
-        <v>0.9692839941655546</v>
+        <v>0.9788173776189404</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029900800606146</v>
+        <v>1.034265084127715</v>
       </c>
       <c r="J20">
-        <v>0.9909025003883037</v>
+        <v>1.001329190903912</v>
       </c>
       <c r="K20">
-        <v>1.002497860152573</v>
+        <v>1.011338369293703</v>
       </c>
       <c r="L20">
-        <v>0.988624112013329</v>
+        <v>0.9982679974062818</v>
       </c>
       <c r="M20">
-        <v>0.9838893414393963</v>
+        <v>0.9932432129558151</v>
       </c>
       <c r="N20">
-        <v>0.9923096955969605</v>
+        <v>1.002751193209059</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9526670730972983</v>
+        <v>0.9667549458925027</v>
       </c>
       <c r="D21">
-        <v>0.9814606009735036</v>
+        <v>0.9929822951286486</v>
       </c>
       <c r="E21">
-        <v>0.9666420605512051</v>
+        <v>0.9792506635165648</v>
       </c>
       <c r="F21">
-        <v>0.9597207370961224</v>
+        <v>0.9719894759605207</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027241692904829</v>
+        <v>1.032754487974698</v>
       </c>
       <c r="J21">
-        <v>0.9842862996660963</v>
+        <v>0.9977115268687053</v>
       </c>
       <c r="K21">
-        <v>0.9968019312897897</v>
+        <v>1.008097851048614</v>
       </c>
       <c r="L21">
-        <v>0.982284220982079</v>
+        <v>0.9946360977560808</v>
       </c>
       <c r="M21">
-        <v>0.975507620099403</v>
+        <v>0.9875216842388052</v>
       </c>
       <c r="N21">
-        <v>0.9856840991108387</v>
+        <v>0.9991283916759702</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9466913194524319</v>
+        <v>0.962918385025593</v>
       </c>
       <c r="D22">
-        <v>0.9770377414357065</v>
+        <v>0.9902370408471375</v>
       </c>
       <c r="E22">
-        <v>0.9617767216930397</v>
+        <v>0.9762380688875318</v>
       </c>
       <c r="F22">
-        <v>0.9534781566528918</v>
+        <v>0.9675849717775667</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025493308559963</v>
+        <v>1.031769571028827</v>
       </c>
       <c r="J22">
-        <v>0.9799636660568977</v>
+        <v>0.9953770374408445</v>
       </c>
       <c r="K22">
-        <v>0.99307823469599</v>
+        <v>1.006004416986362</v>
       </c>
       <c r="L22">
-        <v>0.9781454198821522</v>
+        <v>0.9922954228602054</v>
       </c>
       <c r="M22">
-        <v>0.9700312041992731</v>
+        <v>0.9838271377708266</v>
       </c>
       <c r="N22">
-        <v>0.9813553268661019</v>
+        <v>0.9967905870053523</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9498815717174857</v>
+        <v>0.9649616761088592</v>
       </c>
       <c r="D23">
-        <v>0.9793980732602051</v>
+        <v>0.9916986091422779</v>
       </c>
       <c r="E23">
-        <v>0.9643729105995456</v>
+        <v>0.9778416092856526</v>
       </c>
       <c r="F23">
-        <v>0.9568104996698508</v>
+        <v>0.9699308696811243</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026427755982008</v>
+        <v>1.032295111677738</v>
       </c>
       <c r="J23">
-        <v>0.9822714373675219</v>
+        <v>0.9966204655387572</v>
       </c>
       <c r="K23">
-        <v>0.9950664444208078</v>
+        <v>1.007119660340556</v>
       </c>
       <c r="L23">
-        <v>0.9803547279389967</v>
+        <v>0.9935418605143479</v>
       </c>
       <c r="M23">
-        <v>0.9729550264398754</v>
+        <v>0.9857952433990105</v>
       </c>
       <c r="N23">
-        <v>0.9836663754766926</v>
+        <v>0.9980357809137874</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9619657799888003</v>
+        <v>0.9728021088336937</v>
       </c>
       <c r="D24">
-        <v>0.9883563641356239</v>
+        <v>0.9973173943236009</v>
       </c>
       <c r="E24">
-        <v>0.9742327282069271</v>
+        <v>0.9840141739971113</v>
       </c>
       <c r="F24">
-        <v>0.9694406925992218</v>
+        <v>0.9789300469718363</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029944156989613</v>
+        <v>1.034289832278962</v>
       </c>
       <c r="J24">
-        <v>0.9910108387430626</v>
+        <v>1.001388867018244</v>
       </c>
       <c r="K24">
-        <v>1.002591087771239</v>
+        <v>1.011391783871618</v>
       </c>
       <c r="L24">
-        <v>0.9887279783018212</v>
+        <v>0.9983279574752554</v>
       </c>
       <c r="M24">
-        <v>0.984026593318821</v>
+        <v>0.9933375615450787</v>
       </c>
       <c r="N24">
-        <v>0.9924181878046098</v>
+        <v>1.002810954070319</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9751243201048135</v>
+        <v>0.9815134624113019</v>
       </c>
       <c r="D25">
-        <v>0.9981392592472059</v>
+        <v>1.003578221149104</v>
       </c>
       <c r="E25">
-        <v>0.9850149437574852</v>
+        <v>0.9909092870909436</v>
       </c>
       <c r="F25">
-        <v>0.9832095545636516</v>
+        <v>0.9889263118627826</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033722776265992</v>
+        <v>1.036459657967189</v>
       </c>
       <c r="J25">
-        <v>1.000518863333645</v>
+        <v>1.006679400907292</v>
       </c>
       <c r="K25">
-        <v>1.010766529658541</v>
+        <v>1.016121242640462</v>
       </c>
       <c r="L25">
-        <v>0.9978504246505135</v>
+        <v>1.003650383177146</v>
       </c>
       <c r="M25">
-        <v>0.9960742354534706</v>
+        <v>1.001698999896721</v>
       </c>
       <c r="N25">
-        <v>1.001939714880696</v>
+        <v>1.008109001124322</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_59/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.988180914174102</v>
+        <v>0.9913400203391858</v>
       </c>
       <c r="D2">
-        <v>1.008381221794343</v>
+        <v>1.014111915786516</v>
       </c>
       <c r="E2">
-        <v>0.9962135530093124</v>
+        <v>0.9990020896325309</v>
       </c>
       <c r="F2">
-        <v>0.9965772062134711</v>
+        <v>0.9996883486104724</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038081410993866</v>
+        <v>1.040534119133839</v>
       </c>
       <c r="J2">
-        <v>1.010720971787842</v>
+        <v>1.013782871557784</v>
       </c>
       <c r="K2">
-        <v>1.019725014840247</v>
+        <v>1.025378088689055</v>
       </c>
       <c r="L2">
-        <v>1.007725892331186</v>
+        <v>1.01047534446066</v>
       </c>
       <c r="M2">
-        <v>1.008084432858503</v>
+        <v>1.011152026939458</v>
       </c>
       <c r="N2">
-        <v>1.012156311499097</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.008570631621264</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.029014589124568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9928732535792286</v>
+        <v>0.9950524868110351</v>
       </c>
       <c r="D3">
-        <v>1.011766394229113</v>
+        <v>1.016480196971491</v>
       </c>
       <c r="E3">
-        <v>0.9999609337265751</v>
+        <v>1.001899301896751</v>
       </c>
       <c r="F3">
-        <v>1.001962548369537</v>
+        <v>1.0042273294454</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039199341853818</v>
+        <v>1.041211024012727</v>
       </c>
       <c r="J3">
-        <v>1.013560104519731</v>
+        <v>1.015678940761695</v>
       </c>
       <c r="K3">
-        <v>1.022250903366828</v>
+        <v>1.026906465215135</v>
       </c>
       <c r="L3">
-        <v>1.010594314437334</v>
+        <v>1.012507938347298</v>
       </c>
       <c r="M3">
-        <v>1.012570379461175</v>
+        <v>1.014806405048035</v>
       </c>
       <c r="N3">
-        <v>1.014999476125118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.009211757597521</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.030092612816576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9958448554767411</v>
+        <v>0.9974130553279198</v>
       </c>
       <c r="D4">
-        <v>1.013912035745601</v>
+        <v>1.017989490381635</v>
       </c>
       <c r="E4">
-        <v>1.002340420226906</v>
+        <v>1.003747632997</v>
       </c>
       <c r="F4">
-        <v>1.005373693439051</v>
+        <v>1.007112469697462</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039896203764865</v>
+        <v>1.041631678985095</v>
       </c>
       <c r="J4">
-        <v>1.015355450823163</v>
+        <v>1.016883167707636</v>
       </c>
       <c r="K4">
-        <v>1.0238454050452</v>
+        <v>1.027875540165303</v>
       </c>
       <c r="L4">
-        <v>1.012410680273625</v>
+        <v>1.013801036850416</v>
       </c>
       <c r="M4">
-        <v>1.015407692500776</v>
+        <v>1.017125804764135</v>
       </c>
       <c r="N4">
-        <v>1.01679737202623</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.009618836900356</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.030778756522135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.997079223263305</v>
+        <v>0.9983984373233302</v>
       </c>
       <c r="D5">
-        <v>1.014803690231338</v>
+        <v>1.018622394250409</v>
       </c>
       <c r="E5">
-        <v>1.003330296505741</v>
+        <v>1.004520933803384</v>
       </c>
       <c r="F5">
-        <v>1.006790840013379</v>
+        <v>1.008315796731267</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040182964893857</v>
+        <v>1.041806154199211</v>
       </c>
       <c r="J5">
-        <v>1.016100547867781</v>
+        <v>1.017386736879192</v>
       </c>
       <c r="K5">
-        <v>1.024506467001261</v>
+        <v>1.028282041920333</v>
       </c>
       <c r="L5">
-        <v>1.01316509752121</v>
+        <v>1.014341860788422</v>
       </c>
       <c r="M5">
-        <v>1.016585429014588</v>
+        <v>1.018092773738867</v>
       </c>
       <c r="N5">
-        <v>1.017543527194115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.009789249028417</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.031073452303202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9972856220999424</v>
+        <v>0.9985665670672493</v>
       </c>
       <c r="D6">
-        <v>1.014952804490375</v>
+        <v>1.018732968660254</v>
       </c>
       <c r="E6">
-        <v>1.003495898676237</v>
+        <v>1.004653327487022</v>
       </c>
       <c r="F6">
-        <v>1.007027813968411</v>
+        <v>1.00852008277286</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040230753948622</v>
+        <v>1.041837309569024</v>
       </c>
       <c r="J6">
-        <v>1.016225095397843</v>
+        <v>1.017474140157396</v>
       </c>
       <c r="K6">
-        <v>1.024616926952436</v>
+        <v>1.028354593947935</v>
       </c>
       <c r="L6">
-        <v>1.013291237997951</v>
+        <v>1.014435242769619</v>
       </c>
       <c r="M6">
-        <v>1.016782308878712</v>
+        <v>1.018257426653433</v>
       </c>
       <c r="N6">
-        <v>1.017668251595956</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.009819085512838</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.031133604291475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9958614069296992</v>
+        <v>0.9974349604141965</v>
       </c>
       <c r="D7">
-        <v>1.013923990385441</v>
+        <v>1.018010350370912</v>
       </c>
       <c r="E7">
-        <v>1.002353687600491</v>
+        <v>1.003765805861292</v>
       </c>
       <c r="F7">
-        <v>1.005392694917357</v>
+        <v>1.007136481246116</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039900059651037</v>
+        <v>1.041639656458945</v>
       </c>
       <c r="J7">
-        <v>1.015365444402932</v>
+        <v>1.016898393726867</v>
       </c>
       <c r="K7">
-        <v>1.023854274225868</v>
+        <v>1.027893229111253</v>
       </c>
       <c r="L7">
-        <v>1.012420796504627</v>
+        <v>1.013816006151139</v>
       </c>
       <c r="M7">
-        <v>1.015423487936229</v>
+        <v>1.0171465587813</v>
       </c>
       <c r="N7">
-        <v>1.016807379798028</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.009624699151933</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.030811621506941</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9897804620151427</v>
+        <v>0.9926143254172628</v>
       </c>
       <c r="D8">
-        <v>1.00953474761957</v>
+        <v>1.014932457356993</v>
       </c>
       <c r="E8">
-        <v>0.9974896227080964</v>
+        <v>0.9999965448952635</v>
       </c>
       <c r="F8">
-        <v>0.9984128700067443</v>
+        <v>1.001243164310109</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038464802603284</v>
+        <v>1.040773487966697</v>
       </c>
       <c r="J8">
-        <v>1.011689322494164</v>
+        <v>1.014438961397935</v>
       </c>
       <c r="K8">
-        <v>1.02058709523505</v>
+        <v>1.025913887765334</v>
       </c>
       <c r="L8">
-        <v>1.008703706371</v>
+        <v>1.01117656298241</v>
       </c>
       <c r="M8">
-        <v>1.009614382983412</v>
+        <v>1.012406322437063</v>
       </c>
       <c r="N8">
-        <v>1.013126037374493</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.008793432237673</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.029416652204514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9785418834258877</v>
+        <v>0.9837722949245988</v>
       </c>
       <c r="D9">
-        <v>1.001440588558673</v>
+        <v>1.009305325800524</v>
       </c>
       <c r="E9">
-        <v>0.988552832760799</v>
+        <v>0.9931315306856794</v>
       </c>
       <c r="F9">
-        <v>0.9855165587291517</v>
+        <v>0.9904282675975381</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035725538099262</v>
+        <v>1.039102492231412</v>
       </c>
       <c r="J9">
-        <v>1.004875822294059</v>
+        <v>1.009911403088789</v>
       </c>
       <c r="K9">
-        <v>1.014510336377913</v>
+        <v>1.022249213332698</v>
       </c>
       <c r="L9">
-        <v>1.001834403328649</v>
+        <v>1.006337035710495</v>
       </c>
       <c r="M9">
-        <v>0.9988490733523685</v>
+        <v>1.003678572199042</v>
       </c>
       <c r="N9">
-        <v>1.006302861222585</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.007261170327463</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.026822200820235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.970655763851702</v>
+        <v>0.9776347441142553</v>
       </c>
       <c r="D10">
-        <v>0.995777631109739</v>
+        <v>1.005424340326498</v>
       </c>
       <c r="E10">
-        <v>0.9823213169727255</v>
+        <v>0.9884031110639183</v>
       </c>
       <c r="F10">
-        <v>0.9764668045580355</v>
+        <v>0.9829104797976247</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03374741100589</v>
+        <v>1.037894720660006</v>
       </c>
       <c r="J10">
-        <v>1.000084023417541</v>
+        <v>1.006764701320095</v>
       </c>
       <c r="K10">
-        <v>1.010223542530058</v>
+        <v>1.019696342463742</v>
       </c>
       <c r="L10">
-        <v>0.9970172741609009</v>
+        <v>1.002984956077567</v>
       </c>
       <c r="M10">
-        <v>0.9912743677232185</v>
+        <v>0.9975953018492537</v>
       </c>
       <c r="N10">
-        <v>1.001504257442035</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.006196205334103</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.025034157000874</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9671373201699435</v>
+        <v>0.9749247844654185</v>
       </c>
       <c r="D11">
-        <v>0.9932561259906301</v>
+        <v>1.003724862763682</v>
       </c>
       <c r="E11">
-        <v>0.9795513218062544</v>
+        <v>0.9863260130237267</v>
       </c>
       <c r="F11">
-        <v>0.9724284003378975</v>
+        <v>0.979584512242996</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032852208129645</v>
+        <v>1.03735497428462</v>
       </c>
       <c r="J11">
-        <v>0.9979441419504901</v>
+        <v>1.005379252044792</v>
       </c>
       <c r="K11">
-        <v>1.008306352463683</v>
+        <v>1.018576873848065</v>
       </c>
       <c r="L11">
-        <v>0.994869455581405</v>
+        <v>1.001510491473855</v>
       </c>
       <c r="M11">
-        <v>0.987889705960034</v>
+        <v>0.9949019852920119</v>
       </c>
       <c r="N11">
-        <v>0.9993613370978527</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.005728386938892</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.024275936848993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9658138782033893</v>
+        <v>0.9739021249348523</v>
       </c>
       <c r="D12">
-        <v>0.9923085352190634</v>
+        <v>1.003079980122589</v>
       </c>
       <c r="E12">
-        <v>0.9785110219215063</v>
+        <v>0.9855427846443275</v>
       </c>
       <c r="F12">
-        <v>0.9709091923263299</v>
+        <v>0.9783307776387469</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032513638670259</v>
+        <v>1.037147009417515</v>
       </c>
       <c r="J12">
-        <v>0.9971389896266502</v>
+        <v>1.004853586680291</v>
       </c>
       <c r="K12">
-        <v>1.007584590127257</v>
+        <v>1.018148409510521</v>
       </c>
       <c r="L12">
-        <v>0.9940618309528765</v>
+        <v>1.000952304280637</v>
       </c>
       <c r="M12">
-        <v>0.9866157857164369</v>
+        <v>0.9938852435007064</v>
       </c>
       <c r="N12">
-        <v>0.9985550413653604</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.005550288056879</v>
+      </c>
+      <c r="Q12">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R12">
+        <v>1.023972990294739</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9660985254242799</v>
+        <v>0.9741207459101553</v>
       </c>
       <c r="D13">
-        <v>0.9925123035674223</v>
+        <v>1.003216916825411</v>
       </c>
       <c r="E13">
-        <v>0.9787346962585708</v>
+        <v>0.9857099909254095</v>
       </c>
       <c r="F13">
-        <v>0.9712359546301844</v>
+        <v>0.9785992005296308</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032586540909953</v>
+        <v>1.037191030504848</v>
       </c>
       <c r="J13">
-        <v>0.9973121729819002</v>
+        <v>1.004965436019827</v>
       </c>
       <c r="K13">
-        <v>1.00773985445646</v>
+        <v>1.018238916488944</v>
       </c>
       <c r="L13">
-        <v>0.9942355227394917</v>
+        <v>1.001071209444046</v>
       </c>
       <c r="M13">
-        <v>0.986889818305394</v>
+        <v>0.9941027648597051</v>
       </c>
       <c r="N13">
-        <v>0.9987284706608396</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.005588064502876</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.024034453480262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9670282671506463</v>
+        <v>0.9748399444750946</v>
       </c>
       <c r="D14">
-        <v>0.9931780254762768</v>
+        <v>1.003670966890359</v>
       </c>
       <c r="E14">
-        <v>0.9794655666506331</v>
+        <v>0.9862609367502826</v>
       </c>
       <c r="F14">
-        <v>0.9723032201698556</v>
+        <v>0.9794806749726163</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032824346788075</v>
+        <v>1.0373375364795</v>
       </c>
       <c r="J14">
-        <v>0.9978778012960366</v>
+        <v>1.005335418237004</v>
       </c>
       <c r="K14">
-        <v>1.008246890717915</v>
+        <v>1.018540863080889</v>
       </c>
       <c r="L14">
-        <v>0.994802900731718</v>
+        <v>1.001464003552359</v>
       </c>
       <c r="M14">
-        <v>0.9877847499831727</v>
+        <v>0.9948177078165141</v>
       </c>
       <c r="N14">
-        <v>0.9992949022320609</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.005713485238497</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.024249391576989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9675988907751739</v>
+        <v>0.975284111487055</v>
       </c>
       <c r="D15">
-        <v>0.9935867246507359</v>
+        <v>1.003953263102966</v>
       </c>
       <c r="E15">
-        <v>0.9799143498074453</v>
+        <v>0.9866017092956153</v>
       </c>
       <c r="F15">
-        <v>0.9729582216624327</v>
+        <v>0.9800242381338713</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03297005740196</v>
+        <v>1.03742881541881</v>
       </c>
       <c r="J15">
-        <v>0.9982249212043363</v>
+        <v>1.005564953987013</v>
       </c>
       <c r="K15">
-        <v>1.008558001379325</v>
+        <v>1.018729494419676</v>
       </c>
       <c r="L15">
-        <v>0.9951511623820852</v>
+        <v>1.001707438881183</v>
       </c>
       <c r="M15">
-        <v>0.9883339029603319</v>
+        <v>0.9952588777292506</v>
       </c>
       <c r="N15">
-        <v>0.9996425150904453</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.005791529459304</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.024388722708922</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9708870066432891</v>
+        <v>0.977833763793826</v>
       </c>
       <c r="D16">
-        <v>0.9959434655980344</v>
+        <v>1.005564535912829</v>
       </c>
       <c r="E16">
-        <v>0.9825035891696359</v>
+        <v>0.9885586338975018</v>
       </c>
       <c r="F16">
-        <v>0.9767321986878317</v>
+        <v>0.9831481738633323</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033805987827273</v>
+        <v>1.037942990835127</v>
       </c>
       <c r="J16">
-        <v>1.00022462570649</v>
+        <v>1.006875601758252</v>
       </c>
       <c r="K16">
-        <v>1.010349455952838</v>
+        <v>1.019797657872929</v>
       </c>
       <c r="L16">
-        <v>0.9971584687766715</v>
+        <v>1.003100289456098</v>
       </c>
       <c r="M16">
-        <v>0.9914967085786512</v>
+        <v>0.9977909136538609</v>
       </c>
       <c r="N16">
-        <v>1.001645059402362</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.006235658563653</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.025147186557335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.972921139623568</v>
+        <v>0.9794156592314369</v>
       </c>
       <c r="D17">
-        <v>0.9974028196597365</v>
+        <v>1.006565832293284</v>
       </c>
       <c r="E17">
-        <v>0.9841081242733035</v>
+        <v>0.9897752368555798</v>
       </c>
       <c r="F17">
-        <v>0.9790666467177146</v>
+        <v>0.9850855281606065</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034319828654821</v>
+        <v>1.038259029814831</v>
       </c>
       <c r="J17">
-        <v>1.001461216959914</v>
+        <v>1.007688510049128</v>
       </c>
       <c r="K17">
-        <v>1.011456540616231</v>
+        <v>1.020459709817634</v>
       </c>
       <c r="L17">
-        <v>0.9984006538658674</v>
+        <v>1.003964950222202</v>
       </c>
       <c r="M17">
-        <v>0.9934519463519612</v>
+        <v>0.9993602152183823</v>
       </c>
       <c r="N17">
-        <v>1.002883406757204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.006511101983025</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.025617918899362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9740976776112342</v>
+        <v>0.9803259105046014</v>
       </c>
       <c r="D18">
-        <v>0.9982473796633099</v>
+        <v>1.007137865173604</v>
       </c>
       <c r="E18">
-        <v>0.9850371484673198</v>
+        <v>0.9904753225056581</v>
       </c>
       <c r="F18">
-        <v>0.9804168153375167</v>
+        <v>0.986202017655551</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03461583048917</v>
+        <v>1.038437069561335</v>
       </c>
       <c r="J18">
-        <v>1.002176266639442</v>
+        <v>1.008153354181176</v>
       </c>
       <c r="K18">
-        <v>1.012096434349413</v>
+        <v>1.020834516814915</v>
       </c>
       <c r="L18">
-        <v>0.9991192573019413</v>
+        <v>1.00446051492352</v>
       </c>
       <c r="M18">
-        <v>0.9945823645146481</v>
+        <v>1.000263249947693</v>
       </c>
       <c r="N18">
-        <v>1.003599471889294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.00666799802222</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.025871122372659</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9744971889112471</v>
+        <v>0.980640132518801</v>
       </c>
       <c r="D19">
-        <v>0.9985342401743724</v>
+        <v>1.00733906614738</v>
       </c>
       <c r="E19">
-        <v>0.9853527740429894</v>
+        <v>0.990717787445227</v>
       </c>
       <c r="F19">
-        <v>0.9808752753933671</v>
+        <v>0.9865858481905797</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03471613677621</v>
+        <v>1.038500473374649</v>
       </c>
       <c r="J19">
-        <v>1.002419038570958</v>
+        <v>1.008315988809666</v>
       </c>
       <c r="K19">
-        <v>1.012313643030482</v>
+        <v>1.020968438576279</v>
       </c>
       <c r="L19">
-        <v>0.9993632897348355</v>
+        <v>1.004633275516532</v>
       </c>
       <c r="M19">
-        <v>0.9949661332066414</v>
+        <v>1.000574404387117</v>
       </c>
       <c r="N19">
-        <v>1.0038425885848</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.006723360668083</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.025972296062297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9727039309397335</v>
+        <v>0.979246083885183</v>
       </c>
       <c r="D20">
-        <v>0.9972469372369922</v>
+        <v>1.006458073877217</v>
       </c>
       <c r="E20">
-        <v>0.9839366882327036</v>
+        <v>0.9896446642743768</v>
       </c>
       <c r="F20">
-        <v>0.9788173776189404</v>
+        <v>0.9848780324142211</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034265084127715</v>
+        <v>1.038225051115578</v>
       </c>
       <c r="J20">
-        <v>1.001329190903912</v>
+        <v>1.007601160367438</v>
       </c>
       <c r="K20">
-        <v>1.011338369293703</v>
+        <v>1.020388308484024</v>
       </c>
       <c r="L20">
-        <v>0.9982679974062818</v>
+        <v>1.003872076971464</v>
       </c>
       <c r="M20">
-        <v>0.9932432129558151</v>
+        <v>0.9991920992838192</v>
       </c>
       <c r="N20">
-        <v>1.002751193209059</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.006481458356034</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.025566079632772</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9667549458925027</v>
+        <v>0.9746352050257818</v>
       </c>
       <c r="D21">
-        <v>0.9929822951286486</v>
+        <v>1.00354662407753</v>
       </c>
       <c r="E21">
-        <v>0.9792506635165648</v>
+        <v>0.9861049767109127</v>
       </c>
       <c r="F21">
-        <v>0.9719894759605207</v>
+        <v>0.97922763308798</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032754487974698</v>
+        <v>1.03729874568384</v>
       </c>
       <c r="J21">
-        <v>0.9977115268687053</v>
+        <v>1.005233076385558</v>
       </c>
       <c r="K21">
-        <v>1.008097851048614</v>
+        <v>1.018461114670671</v>
       </c>
       <c r="L21">
-        <v>0.9946360977560808</v>
+        <v>1.00135446451047</v>
       </c>
       <c r="M21">
-        <v>0.9875216842388052</v>
+        <v>0.9946135283266395</v>
       </c>
       <c r="N21">
-        <v>0.9991283916759702</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.005679458827976</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.02420671804302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.962918385025593</v>
+        <v>0.9716691719416025</v>
       </c>
       <c r="D22">
-        <v>0.9902370408471375</v>
+        <v>1.001673113274216</v>
       </c>
       <c r="E22">
-        <v>0.9762380688875318</v>
+        <v>0.9838351947516325</v>
       </c>
       <c r="F22">
-        <v>0.9675849717775667</v>
+        <v>0.9755924815265454</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031769571028827</v>
+        <v>1.036689558764196</v>
       </c>
       <c r="J22">
-        <v>0.9953770374408445</v>
+        <v>1.003705237188722</v>
       </c>
       <c r="K22">
-        <v>1.006004416986362</v>
+        <v>1.017211498169376</v>
       </c>
       <c r="L22">
-        <v>0.9922954228602054</v>
+        <v>0.9997338281031103</v>
       </c>
       <c r="M22">
-        <v>0.9838271377708266</v>
+        <v>0.9916634740924049</v>
       </c>
       <c r="N22">
-        <v>0.9967905870053523</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.005161126873305</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.023309459255887</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9649616761088592</v>
+        <v>0.9732391320543838</v>
       </c>
       <c r="D23">
-        <v>0.9916986091422779</v>
+        <v>1.002658337488488</v>
       </c>
       <c r="E23">
-        <v>0.9778416092856526</v>
+        <v>0.9850347056418953</v>
       </c>
       <c r="F23">
-        <v>0.9699308696811243</v>
+        <v>0.9775194733168132</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032295111677738</v>
+        <v>1.037009486922953</v>
       </c>
       <c r="J23">
-        <v>0.9966204655387572</v>
+        <v>1.004510443210122</v>
       </c>
       <c r="K23">
-        <v>1.007119660340556</v>
+        <v>1.01786572031439</v>
       </c>
       <c r="L23">
-        <v>0.9935418605143479</v>
+        <v>1.000588734927357</v>
       </c>
       <c r="M23">
-        <v>0.9857952433990105</v>
+        <v>0.9932263393834749</v>
       </c>
       <c r="N23">
-        <v>0.9980357809137874</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.005433503973364</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.023762259009219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9728021088336937</v>
+        <v>0.9793094408546542</v>
       </c>
       <c r="D24">
-        <v>0.9973173943236009</v>
+        <v>1.006488521375284</v>
       </c>
       <c r="E24">
-        <v>0.9840141739971113</v>
+        <v>0.9896916927247749</v>
       </c>
       <c r="F24">
-        <v>0.9789300469718363</v>
+        <v>0.9849597167781168</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034289832278962</v>
+        <v>1.038232014342023</v>
       </c>
       <c r="J24">
-        <v>1.001388867018244</v>
+        <v>1.007627896809419</v>
       </c>
       <c r="K24">
-        <v>1.011391783871618</v>
+        <v>1.020402641454593</v>
       </c>
       <c r="L24">
-        <v>0.9983279574752554</v>
+        <v>1.00390228485308</v>
       </c>
       <c r="M24">
-        <v>0.9933375615450787</v>
+        <v>0.9992562071260209</v>
       </c>
       <c r="N24">
-        <v>1.002810954070319</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.006489265726932</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.025548424692467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9815134624113019</v>
+        <v>0.9861136850858393</v>
       </c>
       <c r="D25">
-        <v>1.003578221149104</v>
+        <v>1.010802116012643</v>
       </c>
       <c r="E25">
-        <v>0.9909092870909436</v>
+        <v>0.9949450058968483</v>
       </c>
       <c r="F25">
-        <v>0.9889263118627826</v>
+        <v>0.993289195534758</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036459657967189</v>
+        <v>1.039559828939056</v>
       </c>
       <c r="J25">
-        <v>1.006679400907292</v>
+        <v>1.011117589870294</v>
       </c>
       <c r="K25">
-        <v>1.016121242640462</v>
+        <v>1.023235025836804</v>
       </c>
       <c r="L25">
-        <v>1.003650383177146</v>
+        <v>1.007622304283691</v>
       </c>
       <c r="M25">
-        <v>1.001698999896721</v>
+        <v>1.005992589113273</v>
       </c>
       <c r="N25">
-        <v>1.008109001124322</v>
+        <v>1.007670710883672</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.027548217264913</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_59/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9913400203391858</v>
+        <v>0.9920323669431045</v>
       </c>
       <c r="D2">
-        <v>1.014111915786516</v>
+        <v>1.014615418857777</v>
       </c>
       <c r="E2">
-        <v>0.9990020896325309</v>
+        <v>0.9996024940522872</v>
       </c>
       <c r="F2">
-        <v>0.9996883486104724</v>
+        <v>1.000244295098466</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.040534119133839</v>
+        <v>1.040760997614599</v>
       </c>
       <c r="J2">
-        <v>1.013782871557784</v>
+        <v>1.014454028517139</v>
       </c>
       <c r="K2">
-        <v>1.025378088689055</v>
+        <v>1.025874824659175</v>
       </c>
       <c r="L2">
-        <v>1.01047534446066</v>
+        <v>1.011067369543083</v>
       </c>
       <c r="M2">
-        <v>1.011152026939458</v>
+        <v>1.011700227550796</v>
       </c>
       <c r="N2">
-        <v>1.008570631621264</v>
+        <v>1.011079556488353</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.029014589124568</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.029374718366453</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019042338116049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9950524868110351</v>
+        <v>0.9956115005084243</v>
       </c>
       <c r="D3">
-        <v>1.016480196971491</v>
+        <v>1.016814603141267</v>
       </c>
       <c r="E3">
-        <v>1.001899301896751</v>
+        <v>1.002384492120717</v>
       </c>
       <c r="F3">
-        <v>1.0042273294454</v>
+        <v>1.004664998695961</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.041211024012727</v>
+        <v>1.041365373441175</v>
       </c>
       <c r="J3">
-        <v>1.015678940761695</v>
+        <v>1.016222519607794</v>
       </c>
       <c r="K3">
-        <v>1.026906465215135</v>
+        <v>1.027236765181684</v>
       </c>
       <c r="L3">
-        <v>1.012507938347298</v>
+        <v>1.012986953573267</v>
       </c>
       <c r="M3">
-        <v>1.014806405048035</v>
+        <v>1.015238535953516</v>
       </c>
       <c r="N3">
-        <v>1.009211757597521</v>
+        <v>1.011555233729802</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.030092612816576</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.030334775650396</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019305474181387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9974130553279198</v>
+        <v>0.9978882832655761</v>
       </c>
       <c r="D4">
-        <v>1.017989490381635</v>
+        <v>1.018216995732692</v>
       </c>
       <c r="E4">
-        <v>1.003747632997</v>
+        <v>1.004160296623337</v>
       </c>
       <c r="F4">
-        <v>1.007112469697462</v>
+        <v>1.007476004190879</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.041631678985095</v>
+        <v>1.041740143035656</v>
       </c>
       <c r="J4">
-        <v>1.016883167707636</v>
+        <v>1.017346161661101</v>
       </c>
       <c r="K4">
-        <v>1.027875540165303</v>
+        <v>1.028100419069981</v>
       </c>
       <c r="L4">
-        <v>1.013801036850416</v>
+        <v>1.014208768525627</v>
       </c>
       <c r="M4">
-        <v>1.017125804764135</v>
+        <v>1.017485030104111</v>
       </c>
       <c r="N4">
-        <v>1.009618836900356</v>
+        <v>1.011857417014074</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.030778756522135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.030946456128548</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019469905666903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9983984373233302</v>
+        <v>0.9988389195761065</v>
       </c>
       <c r="D5">
-        <v>1.018622394250409</v>
+        <v>1.018805466401424</v>
       </c>
       <c r="E5">
-        <v>1.004520933803384</v>
+        <v>1.004903492869315</v>
       </c>
       <c r="F5">
-        <v>1.008315796731267</v>
+        <v>1.008648634368774</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.041806154199211</v>
+        <v>1.041895533085857</v>
       </c>
       <c r="J5">
-        <v>1.017386736879192</v>
+        <v>1.017816218349046</v>
       </c>
       <c r="K5">
-        <v>1.028282041920333</v>
+        <v>1.028463056425744</v>
       </c>
       <c r="L5">
-        <v>1.014341860788422</v>
+        <v>1.014719970671103</v>
       </c>
       <c r="M5">
-        <v>1.018092773738867</v>
+        <v>1.018421776119985</v>
       </c>
       <c r="N5">
-        <v>1.009789249028417</v>
+        <v>1.011983987620912</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.031073452303202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.031210844648688</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.01953874651113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9985665670672493</v>
+        <v>0.9990011372394081</v>
       </c>
       <c r="D6">
-        <v>1.018732968660254</v>
+        <v>1.018908524416786</v>
       </c>
       <c r="E6">
-        <v>1.004653327487022</v>
+        <v>1.005030761348021</v>
       </c>
       <c r="F6">
-        <v>1.00852008277286</v>
+        <v>1.008847705373956</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.041837309569024</v>
+        <v>1.041923453034233</v>
       </c>
       <c r="J6">
-        <v>1.017474140157396</v>
+        <v>1.017897912992892</v>
       </c>
       <c r="K6">
-        <v>1.028354593947935</v>
+        <v>1.028528185512479</v>
       </c>
       <c r="L6">
-        <v>1.014435242769619</v>
+        <v>1.014808307354725</v>
       </c>
       <c r="M6">
-        <v>1.018257426653433</v>
+        <v>1.018581292188061</v>
       </c>
       <c r="N6">
-        <v>1.009819085512838</v>
+        <v>1.012006191497584</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.031133604291475</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.031266615328134</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019551548991421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9974349604141965</v>
+        <v>0.9979169095582943</v>
       </c>
       <c r="D7">
-        <v>1.018010350370912</v>
+        <v>1.018242168014801</v>
       </c>
       <c r="E7">
-        <v>1.003765805861292</v>
+        <v>1.004184470177642</v>
       </c>
       <c r="F7">
-        <v>1.007136481246116</v>
+        <v>1.007505680821482</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.041639656458945</v>
+        <v>1.041750224427768</v>
       </c>
       <c r="J7">
-        <v>1.016898393726867</v>
+        <v>1.017367941256301</v>
       </c>
       <c r="K7">
-        <v>1.027893229111253</v>
+        <v>1.02812237156992</v>
       </c>
       <c r="L7">
-        <v>1.013816006151139</v>
+        <v>1.014229668741014</v>
       </c>
       <c r="M7">
-        <v>1.0171465587813</v>
+        <v>1.01751138380935</v>
       </c>
       <c r="N7">
-        <v>1.009624699151933</v>
+        <v>1.011889741315243</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.030811621506941</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.030984331799717</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019475852485829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9926143254172628</v>
+        <v>0.9932837686667233</v>
       </c>
       <c r="D8">
-        <v>1.014932457356993</v>
+        <v>1.015393917868139</v>
       </c>
       <c r="E8">
-        <v>0.9999965448952635</v>
+        <v>1.000577813448609</v>
       </c>
       <c r="F8">
-        <v>1.001243164310109</v>
+        <v>1.001777968280549</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.040773487966697</v>
+        <v>1.040983177895363</v>
       </c>
       <c r="J8">
-        <v>1.014438961397935</v>
+        <v>1.015088604687043</v>
       </c>
       <c r="K8">
-        <v>1.025913887765334</v>
+        <v>1.026369329247168</v>
       </c>
       <c r="L8">
-        <v>1.01117656298241</v>
+        <v>1.011749963568478</v>
       </c>
       <c r="M8">
-        <v>1.012406322437063</v>
+        <v>1.012933909598607</v>
       </c>
       <c r="N8">
-        <v>1.008793432237673</v>
+        <v>1.011329721381967</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.029416652204514</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.029749844250903</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019141452989493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9837722949245988</v>
+        <v>0.9847690926902711</v>
       </c>
       <c r="D9">
-        <v>1.009305325800524</v>
+        <v>1.010175713807516</v>
       </c>
       <c r="E9">
-        <v>0.9931315306856794</v>
+        <v>0.9939948904393384</v>
       </c>
       <c r="F9">
-        <v>0.9904282675975381</v>
+        <v>0.9912549488258515</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.039102492231412</v>
+        <v>1.039487564580017</v>
       </c>
       <c r="J9">
-        <v>1.009911403088789</v>
+        <v>1.010871400468463</v>
       </c>
       <c r="K9">
-        <v>1.022249213332698</v>
+        <v>1.023105826643408</v>
       </c>
       <c r="L9">
-        <v>1.006337035710495</v>
+        <v>1.007186153563429</v>
       </c>
       <c r="M9">
-        <v>1.003678572199042</v>
+        <v>1.004491519935507</v>
       </c>
       <c r="N9">
-        <v>1.007261170327463</v>
+        <v>1.010204106438951</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.026822200820235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.027438784848027</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018496082061799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9776347441142553</v>
+        <v>0.97889956739964</v>
       </c>
       <c r="D10">
-        <v>1.005424340326498</v>
+        <v>1.006606420305556</v>
       </c>
       <c r="E10">
-        <v>0.9884031110639183</v>
+        <v>0.9894974174181593</v>
       </c>
       <c r="F10">
-        <v>0.9829104797976247</v>
+        <v>0.9839771021500242</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.037894720660006</v>
+        <v>1.038414620626041</v>
       </c>
       <c r="J10">
-        <v>1.006764701320095</v>
+        <v>1.007976110389403</v>
       </c>
       <c r="K10">
-        <v>1.019696342463742</v>
+        <v>1.02085740955804</v>
       </c>
       <c r="L10">
-        <v>1.002984956077567</v>
+        <v>1.004058924253777</v>
       </c>
       <c r="M10">
-        <v>0.9975953018492537</v>
+        <v>0.9986418094280676</v>
       </c>
       <c r="N10">
-        <v>1.006196205334103</v>
+        <v>1.00954229309161</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.025034157000874</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.02586769702385</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018041469893741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9749247844654185</v>
+        <v>0.9763648357893652</v>
       </c>
       <c r="D11">
-        <v>1.003724862763682</v>
+        <v>1.005084650903277</v>
       </c>
       <c r="E11">
-        <v>0.9863260130237267</v>
+        <v>0.9875727920572066</v>
       </c>
       <c r="F11">
-        <v>0.979584512242996</v>
+        <v>0.9808079750156006</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.03735497428462</v>
+        <v>1.037953819624104</v>
       </c>
       <c r="J11">
-        <v>1.005379252044792</v>
+        <v>1.006755027373196</v>
       </c>
       <c r="K11">
-        <v>1.018576873848065</v>
+        <v>1.019911310996627</v>
       </c>
       <c r="L11">
-        <v>1.001510491473855</v>
+        <v>1.002732935281645</v>
       </c>
       <c r="M11">
-        <v>0.9949019852920119</v>
+        <v>0.9961011334486701</v>
       </c>
       <c r="N11">
-        <v>1.005728386938892</v>
+        <v>1.009444020709949</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.024275936848993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.025235274498538</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.017852223306108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9739021249348523</v>
+        <v>0.9754137866324668</v>
       </c>
       <c r="D12">
-        <v>1.003079980122589</v>
+        <v>1.004510722728371</v>
       </c>
       <c r="E12">
-        <v>0.9855427846443275</v>
+        <v>0.9868520014365914</v>
       </c>
       <c r="F12">
-        <v>0.9783307776387469</v>
+        <v>0.9796186038900569</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.037147009417515</v>
+        <v>1.037777610650337</v>
       </c>
       <c r="J12">
-        <v>1.004853586680291</v>
+        <v>1.006296399856065</v>
       </c>
       <c r="K12">
-        <v>1.018148409510521</v>
+        <v>1.019552011657434</v>
       </c>
       <c r="L12">
-        <v>1.000952304280637</v>
+        <v>1.002235507117744</v>
       </c>
       <c r="M12">
-        <v>0.9938852435007064</v>
+        <v>0.9951469809913984</v>
       </c>
       <c r="N12">
-        <v>1.005550288056879</v>
+        <v>1.009422873636421</v>
       </c>
       <c r="Q12">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.023972990294739</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.024981237301505</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.017779499089281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9741207459101553</v>
+        <v>0.9756168562256478</v>
       </c>
       <c r="D13">
-        <v>1.003216916825411</v>
+        <v>1.004632298860181</v>
       </c>
       <c r="E13">
-        <v>0.9857099909254095</v>
+        <v>0.9870056458045288</v>
       </c>
       <c r="F13">
-        <v>0.9785992005296308</v>
+        <v>0.9798730319166448</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.037191030504848</v>
+        <v>1.037814755644973</v>
       </c>
       <c r="J13">
-        <v>1.004965436019827</v>
+        <v>1.006393699192002</v>
       </c>
       <c r="K13">
-        <v>1.018238916488944</v>
+        <v>1.019627548595409</v>
       </c>
       <c r="L13">
-        <v>1.001071209444046</v>
+        <v>1.002341217698917</v>
       </c>
       <c r="M13">
-        <v>0.9941027648597051</v>
+        <v>0.9953508963613777</v>
       </c>
       <c r="N13">
-        <v>1.005588064502876</v>
+        <v>1.009426344466391</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.024034453480262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.025031872913989</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.017794637263219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9748399444750946</v>
+        <v>0.9762858247215925</v>
       </c>
       <c r="D14">
-        <v>1.003670966890359</v>
+        <v>1.005036553524589</v>
       </c>
       <c r="E14">
-        <v>0.9862609367502826</v>
+        <v>0.9875127968009887</v>
       </c>
       <c r="F14">
-        <v>0.9794806749726163</v>
+        <v>0.9807093694056865</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.0373375364795</v>
+        <v>1.037938975984926</v>
       </c>
       <c r="J14">
-        <v>1.005335418237004</v>
+        <v>1.006716653914311</v>
       </c>
       <c r="K14">
-        <v>1.018540863080889</v>
+        <v>1.019880953862981</v>
       </c>
       <c r="L14">
-        <v>1.001464003552359</v>
+        <v>1.00269139293128</v>
       </c>
       <c r="M14">
-        <v>0.9948177078165141</v>
+        <v>0.9960219447719157</v>
       </c>
       <c r="N14">
-        <v>1.005713485238497</v>
+        <v>1.009441791620363</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.024249391576989</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.025212623578525</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.017846014277624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.975284111487055</v>
+        <v>0.9766996951475327</v>
       </c>
       <c r="D15">
-        <v>1.003953263102966</v>
+        <v>1.005288654317195</v>
       </c>
       <c r="E15">
-        <v>0.9866017092956153</v>
+        <v>0.9878271646421444</v>
       </c>
       <c r="F15">
-        <v>0.9800242381338713</v>
+        <v>0.9812257529094743</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.03742881541881</v>
+        <v>1.038016753505093</v>
       </c>
       <c r="J15">
-        <v>1.005564953987013</v>
+        <v>1.006917802661291</v>
       </c>
       <c r="K15">
-        <v>1.018729494419676</v>
+        <v>1.020040141653057</v>
       </c>
       <c r="L15">
-        <v>1.001707438881183</v>
+        <v>1.002909125491469</v>
       </c>
       <c r="M15">
-        <v>0.9952588777292506</v>
+        <v>0.9964366749313923</v>
       </c>
       <c r="N15">
-        <v>1.005791529459304</v>
+        <v>1.009454182125599</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.024388722708922</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.025331703230481</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.017878586424505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.977833763793826</v>
+        <v>0.9790868706497068</v>
       </c>
       <c r="D16">
-        <v>1.005564535912829</v>
+        <v>1.006734648162664</v>
       </c>
       <c r="E16">
-        <v>0.9885586338975018</v>
+        <v>0.9896427335743236</v>
       </c>
       <c r="F16">
-        <v>0.9831481738633323</v>
+        <v>0.9842043625194995</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.037942990835127</v>
+        <v>1.038457504058785</v>
       </c>
       <c r="J16">
-        <v>1.006875601758252</v>
+        <v>1.008075989313376</v>
       </c>
       <c r="K16">
-        <v>1.019797657872929</v>
+        <v>1.020947038208975</v>
       </c>
       <c r="L16">
-        <v>1.003100289456098</v>
+        <v>1.004164308059456</v>
       </c>
       <c r="M16">
-        <v>0.9977909136538609</v>
+        <v>0.998827255417443</v>
       </c>
       <c r="N16">
-        <v>1.006235658563653</v>
+        <v>1.009558117737691</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.025147186557335</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.025976436517113</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018062117110942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9794156592314369</v>
+        <v>0.9805793693505531</v>
       </c>
       <c r="D17">
-        <v>1.006565832293284</v>
+        <v>1.007641490604653</v>
       </c>
       <c r="E17">
-        <v>0.9897752368555798</v>
+        <v>0.9907817672273428</v>
       </c>
       <c r="F17">
-        <v>0.9850855281606065</v>
+        <v>0.9860619849179645</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.038259029814831</v>
+        <v>1.038731944445973</v>
       </c>
       <c r="J17">
-        <v>1.007688510049128</v>
+        <v>1.008804868074284</v>
       </c>
       <c r="K17">
-        <v>1.020459709817634</v>
+        <v>1.02151685038435</v>
       </c>
       <c r="L17">
-        <v>1.003964950222202</v>
+        <v>1.004953379317748</v>
       </c>
       <c r="M17">
-        <v>0.9993602152183823</v>
+        <v>1.000318892687357</v>
       </c>
       <c r="N17">
-        <v>1.006511101983025</v>
+        <v>1.009659753876764</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.025617918899362</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.02638219356088</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.01817737900007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9803259105046014</v>
+        <v>0.9814426028761533</v>
       </c>
       <c r="D18">
-        <v>1.007137865173604</v>
+        <v>1.008162193407277</v>
       </c>
       <c r="E18">
-        <v>0.9904753225056581</v>
+        <v>0.9914411468214911</v>
       </c>
       <c r="F18">
-        <v>0.986202017655551</v>
+        <v>0.9871365551248613</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.038437069561335</v>
+        <v>1.038887546103733</v>
       </c>
       <c r="J18">
-        <v>1.008153354181176</v>
+        <v>1.009225494516491</v>
       </c>
       <c r="K18">
-        <v>1.020834516814915</v>
+        <v>1.021841508561603</v>
       </c>
       <c r="L18">
-        <v>1.00446051492352</v>
+        <v>1.005409270968071</v>
       </c>
       <c r="M18">
-        <v>1.000263249947693</v>
+        <v>1.001181085079944</v>
       </c>
       <c r="N18">
-        <v>1.00666799802222</v>
+        <v>1.009731436485072</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.025871122372659</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.026598803709541</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018242222488198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.980640132518801</v>
+        <v>0.981741388419194</v>
       </c>
       <c r="D19">
-        <v>1.00733906614738</v>
+        <v>1.008346293387099</v>
       </c>
       <c r="E19">
-        <v>0.990717787445227</v>
+        <v>0.9916702575360914</v>
       </c>
       <c r="F19">
-        <v>0.9865858481905797</v>
+        <v>0.9875066291671937</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.038500473374649</v>
+        <v>1.038943478699513</v>
       </c>
       <c r="J19">
-        <v>1.008315988809666</v>
+        <v>1.009373605489319</v>
       </c>
       <c r="K19">
-        <v>1.020968438576279</v>
+        <v>1.021958718443717</v>
       </c>
       <c r="L19">
-        <v>1.004633275516532</v>
+        <v>1.005569014279225</v>
       </c>
       <c r="M19">
-        <v>1.000574404387117</v>
+        <v>1.001478833819136</v>
       </c>
       <c r="N19">
-        <v>1.006723360668083</v>
+        <v>1.009759978115173</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.025972296062297</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.026688781100171</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018266282883548</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.979246083885183</v>
+        <v>0.9804189170761777</v>
       </c>
       <c r="D20">
-        <v>1.006458073877217</v>
+        <v>1.007543527898437</v>
       </c>
       <c r="E20">
-        <v>0.9896446642743768</v>
+        <v>0.9906591025860693</v>
       </c>
       <c r="F20">
-        <v>0.9848780324142211</v>
+        <v>0.9858626212674049</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.038225051115578</v>
+        <v>1.038702267404369</v>
       </c>
       <c r="J20">
-        <v>1.007601160367438</v>
+        <v>1.008726097732628</v>
       </c>
       <c r="K20">
-        <v>1.020388308484024</v>
+        <v>1.021455017814299</v>
       </c>
       <c r="L20">
-        <v>1.003872076971464</v>
+        <v>1.004868213352522</v>
       </c>
       <c r="M20">
-        <v>0.9991920992838192</v>
+        <v>1.000158699592308</v>
       </c>
       <c r="N20">
-        <v>1.006481458356034</v>
+        <v>1.009647223857165</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.025566079632772</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.026336991211062</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018164808705245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9746352050257818</v>
+        <v>0.9761142790211598</v>
       </c>
       <c r="D21">
-        <v>1.00354662407753</v>
+        <v>1.004939852784244</v>
       </c>
       <c r="E21">
-        <v>0.9861049767109127</v>
+        <v>0.9873862219193459</v>
       </c>
       <c r="F21">
-        <v>0.97922763308798</v>
+        <v>0.9804859295628905</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.03729874568384</v>
+        <v>1.03791307997028</v>
       </c>
       <c r="J21">
-        <v>1.005233076385558</v>
+        <v>1.006645747010761</v>
       </c>
       <c r="K21">
-        <v>1.018461114670671</v>
+        <v>1.019828238626185</v>
       </c>
       <c r="L21">
-        <v>1.00135446451047</v>
+        <v>1.002610572622008</v>
       </c>
       <c r="M21">
-        <v>0.9946135283266395</v>
+        <v>0.9958466792598923</v>
       </c>
       <c r="N21">
-        <v>1.005679458827976</v>
+        <v>1.009505306458248</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.02420671804302</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.025190373047872</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.017837417244006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9716691719416025</v>
+        <v>0.9733452805955014</v>
       </c>
       <c r="D22">
-        <v>1.001673113274216</v>
+        <v>1.003264840639099</v>
       </c>
       <c r="E22">
-        <v>0.9838351947516325</v>
+        <v>0.9852880095536022</v>
       </c>
       <c r="F22">
-        <v>0.9755924815265454</v>
+        <v>0.9770289001261661</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.036689558764196</v>
+        <v>1.037392570257017</v>
       </c>
       <c r="J22">
-        <v>1.003705237188722</v>
+        <v>1.005301651913125</v>
       </c>
       <c r="K22">
-        <v>1.017211498169376</v>
+        <v>1.018771896671259</v>
       </c>
       <c r="L22">
-        <v>0.9997338281031103</v>
+        <v>1.001156658336131</v>
       </c>
       <c r="M22">
-        <v>0.9916634740924049</v>
+        <v>0.9930695796015786</v>
       </c>
       <c r="N22">
-        <v>1.005161126873305</v>
+        <v>1.009401126569391</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.023309459255887</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.024428479520763</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017621311062296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9732391320543838</v>
+        <v>0.9747984709645497</v>
       </c>
       <c r="D23">
-        <v>1.002658337488488</v>
+        <v>1.004135951345621</v>
       </c>
       <c r="E23">
-        <v>0.9850347056418953</v>
+        <v>0.9863855371028298</v>
       </c>
       <c r="F23">
-        <v>0.9775194733168132</v>
+        <v>0.9788502546303854</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.037009486922953</v>
+        <v>1.03766115402144</v>
       </c>
       <c r="J23">
-        <v>1.004510443210122</v>
+        <v>1.005997844499661</v>
       </c>
       <c r="K23">
-        <v>1.01786572031439</v>
+        <v>1.019314993921023</v>
       </c>
       <c r="L23">
-        <v>1.000588734927357</v>
+        <v>1.001912419513399</v>
       </c>
       <c r="M23">
-        <v>0.9932263393834749</v>
+        <v>0.9945298311650786</v>
       </c>
       <c r="N23">
-        <v>1.005433503973364</v>
+        <v>1.00941171974859</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.023762259009219</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.024801764944339</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017730826304849</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9793094408546542</v>
+        <v>0.9804787961560083</v>
       </c>
       <c r="D24">
-        <v>1.006488521375284</v>
+        <v>1.007570095199394</v>
       </c>
       <c r="E24">
-        <v>0.9896916927247749</v>
+        <v>0.9907031327612909</v>
       </c>
       <c r="F24">
-        <v>0.9849597167781168</v>
+        <v>0.985941186757929</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.038232014342023</v>
+        <v>1.038707586481504</v>
       </c>
       <c r="J24">
-        <v>1.007627896809419</v>
+        <v>1.008749574278862</v>
       </c>
       <c r="K24">
-        <v>1.020402641454593</v>
+        <v>1.021465562995121</v>
       </c>
       <c r="L24">
-        <v>1.00390228485308</v>
+        <v>1.004895502829863</v>
       </c>
       <c r="M24">
-        <v>0.9992562071260209</v>
+        <v>1.000219772557587</v>
       </c>
       <c r="N24">
-        <v>1.006489265726932</v>
+        <v>1.009648585346091</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.025548424692467</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.026313991661485</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018165243577474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9861136850858393</v>
+        <v>0.9870134686022946</v>
       </c>
       <c r="D25">
-        <v>1.010802116012643</v>
+        <v>1.011557344158691</v>
       </c>
       <c r="E25">
-        <v>0.9949450058968483</v>
+        <v>0.9957246341426464</v>
       </c>
       <c r="F25">
-        <v>0.993289195534758</v>
+        <v>0.9940294332400209</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.039559828939056</v>
+        <v>1.039895135755029</v>
       </c>
       <c r="J25">
-        <v>1.011117589870294</v>
+        <v>1.011985927102442</v>
       </c>
       <c r="K25">
-        <v>1.023235025836804</v>
+        <v>1.023978857903464</v>
       </c>
       <c r="L25">
-        <v>1.007622304283691</v>
+        <v>1.008389684213943</v>
       </c>
       <c r="M25">
-        <v>1.005992589113273</v>
+        <v>1.0067211470886</v>
       </c>
       <c r="N25">
-        <v>1.007670710883672</v>
+        <v>1.010472137971798</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.027548217264913</v>
+        <v>1.028087851370648</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018672219676349</v>
       </c>
     </row>
   </sheetData>
